--- a/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T15:09:52+00:00</t>
+    <t>2023-08-21T11:48:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T11:48:15+00:00</t>
+    <t>2023-08-31T15:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -201,6 +205,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -277,10 +285,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -2022,19 +2026,19 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>35</v>
@@ -2048,10 +2052,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2062,7 +2066,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2071,19 +2075,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2133,13 +2137,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2171,10 +2175,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2185,7 +2189,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2194,16 +2198,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2254,19 +2258,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2292,10 +2296,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2306,7 +2310,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
@@ -2318,13 +2322,13 @@
         <v>35</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2375,13 +2379,13 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
@@ -2396,7 +2400,7 @@
         <v>35</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>35</v>
@@ -2413,14 +2417,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2439,16 +2443,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2486,19 +2490,19 @@
         <v>35</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2507,10 +2511,10 @@
         <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2519,7 +2523,7 @@
         <v>35</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>35</v>
@@ -2536,10 +2540,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2550,28 +2554,28 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2621,19 +2625,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2642,7 +2646,7 @@
         <v>35</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>35</v>
@@ -2659,10 +2663,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2673,7 +2677,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -2682,19 +2686,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2744,19 +2748,19 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -2765,7 +2769,7 @@
         <v>35</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>35</v>
@@ -2782,10 +2786,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2796,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>35</v>
@@ -2805,19 +2809,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2867,19 +2871,19 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2888,7 +2892,7 @@
         <v>35</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>35</v>
@@ -2905,10 +2909,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2928,19 +2932,19 @@
         <v>35</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2990,7 +2994,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2999,10 +3003,10 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -3011,7 +3015,7 @@
         <v>35</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>35</v>
@@ -3028,10 +3032,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3051,19 +3055,19 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3089,13 +3093,13 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>35</v>
@@ -3113,7 +3117,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3122,10 +3126,10 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3134,7 +3138,7 @@
         <v>35</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>35</v>
@@ -3143,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AQ10" t="s" s="2">
         <v>35</v>
@@ -3151,10 +3155,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3174,19 +3178,19 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3212,13 +3216,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -3236,7 +3240,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3245,10 +3249,10 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3257,7 +3261,7 @@
         <v>35</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>35</v>
@@ -3266,7 +3270,7 @@
         <v>35</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>35</v>
@@ -3274,10 +3278,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3288,28 +3292,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3359,19 +3363,19 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3397,10 +3401,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3411,7 +3415,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3423,16 +3427,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3458,13 +3462,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -3482,19 +3486,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3520,21 +3524,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -3546,16 +3550,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3605,19 +3609,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3626,7 +3630,7 @@
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -3643,14 +3647,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3669,16 +3673,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3728,7 +3732,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3749,7 +3753,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -3766,14 +3770,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3792,16 +3796,16 @@
         <v>35</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3851,7 +3855,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3863,7 +3867,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -3872,7 +3876,7 @@
         <v>35</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>35</v>
@@ -3889,10 +3893,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3909,19 +3913,19 @@
         <v>35</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3972,7 +3976,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3984,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>35</v>
@@ -4010,10 +4014,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4021,34 +4025,34 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -4097,48 +4101,48 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4152,22 +4156,22 @@
         <v>36</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4218,7 +4222,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4230,36 +4234,36 @@
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4267,31 +4271,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4302,7 +4306,7 @@
         <v>35</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>35</v>
@@ -4317,13 +4321,13 @@
         <v>35</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>35</v>
@@ -4341,48 +4345,48 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4402,19 +4406,19 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4440,13 +4444,13 @@
         <v>35</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>35</v>
@@ -4464,37 +4468,37 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4502,10 +4506,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4516,28 +4520,28 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4563,13 +4567,13 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -4587,80 +4591,80 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4686,13 +4690,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4710,7 +4714,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4722,36 +4726,36 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4759,10 +4763,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -4771,16 +4775,16 @@
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4831,80 +4835,80 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4954,34 +4958,34 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>35</v>
@@ -4992,10 +4996,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5003,31 +5007,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5077,7 +5081,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -5089,36 +5093,36 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5129,10 +5133,10 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>35</v>
@@ -5141,16 +5145,16 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5200,48 +5204,48 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5252,7 +5256,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -5264,16 +5268,16 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5323,28 +5327,28 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>35</v>
@@ -5361,10 +5365,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5378,25 +5382,25 @@
         <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5446,7 +5450,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5458,16 +5462,16 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>35</v>
@@ -5479,15 +5483,15 @@
         <v>35</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5498,7 +5502,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5510,13 +5514,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5567,13 +5571,13 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
@@ -5588,7 +5592,7 @@
         <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -5605,14 +5609,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5631,16 +5635,16 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5690,7 +5694,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5702,7 +5706,7 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
@@ -5711,7 +5715,7 @@
         <v>35</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
@@ -5728,14 +5732,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5748,25 +5752,25 @@
         <v>35</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -5815,7 +5819,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5827,7 +5831,7 @@
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>35</v>
@@ -5836,7 +5840,7 @@
         <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>35</v>
@@ -5853,10 +5857,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5864,10 +5868,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>35</v>
@@ -5876,19 +5880,19 @@
         <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5914,13 +5918,13 @@
         <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>35</v>
@@ -5938,28 +5942,28 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>35</v>
@@ -5971,15 +5975,15 @@
         <v>35</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5987,10 +5991,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5999,16 +6003,16 @@
         <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6059,28 +6063,28 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6092,15 +6096,15 @@
         <v>35</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6111,31 +6115,31 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>35</v>
@@ -6184,19 +6188,19 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
@@ -6205,7 +6209,7 @@
         <v>35</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>35</v>
@@ -6214,18 +6218,18 @@
         <v>35</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6239,28 +6243,28 @@
         <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>35</v>
@@ -6285,13 +6289,13 @@
         <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>35</v>
@@ -6309,7 +6313,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6321,36 +6325,36 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6358,28 +6362,28 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6430,10 +6434,10 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>37</v>
@@ -6442,16 +6446,16 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
@@ -6468,10 +6472,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6482,7 +6486,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>35</v>
@@ -6494,13 +6498,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6551,13 +6555,13 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>35</v>
@@ -6572,7 +6576,7 @@
         <v>35</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>35</v>
@@ -6589,14 +6593,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6615,16 +6619,16 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6674,7 +6678,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6686,7 +6690,7 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
@@ -6695,7 +6699,7 @@
         <v>35</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -6712,14 +6716,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6732,25 +6736,25 @@
         <v>35</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>35</v>
@@ -6799,7 +6803,7 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6811,7 +6815,7 @@
         <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>35</v>
@@ -6820,7 +6824,7 @@
         <v>35</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>35</v>
@@ -6837,10 +6841,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6848,10 +6852,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>35</v>
@@ -6860,16 +6864,16 @@
         <v>35</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6920,48 +6924,48 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6972,7 +6976,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>35</v>
@@ -6984,13 +6988,13 @@
         <v>35</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7041,13 +7045,13 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>35</v>
@@ -7062,7 +7066,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7079,14 +7083,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7105,16 +7109,16 @@
         <v>35</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7152,19 +7156,19 @@
         <v>35</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -7176,7 +7180,7 @@
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
@@ -7185,7 +7189,7 @@
         <v>35</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>35</v>
@@ -7202,10 +7206,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7213,10 +7217,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -7225,20 +7229,20 @@
         <v>35</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>35</v>
@@ -7251,7 +7255,7 @@
         <v>35</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>35</v>
@@ -7263,13 +7267,13 @@
         <v>35</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>35</v>
@@ -7287,19 +7291,19 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
@@ -7308,7 +7312,7 @@
         <v>35</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
@@ -7317,7 +7321,7 @@
         <v>35</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>35</v>
@@ -7325,10 +7329,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7339,29 +7343,29 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>35</v>
@@ -7374,7 +7378,7 @@
         <v>35</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>35</v>
@@ -7386,13 +7390,13 @@
         <v>35</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>35</v>
@@ -7410,19 +7414,19 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7431,7 +7435,7 @@
         <v>35</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>35</v>
@@ -7448,10 +7452,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7459,10 +7463,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -7474,19 +7478,19 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -7535,19 +7539,19 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -7556,7 +7560,7 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -7565,7 +7569,7 @@
         <v>35</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>35</v>
@@ -7573,10 +7577,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7596,22 +7600,22 @@
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -7624,7 +7628,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -7660,19 +7664,19 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
@@ -7681,7 +7685,7 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
@@ -7690,7 +7694,7 @@
         <v>35</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>35</v>
@@ -7698,10 +7702,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7712,7 +7716,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>35</v>
@@ -7721,22 +7725,22 @@
         <v>35</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -7785,19 +7789,19 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -7806,7 +7810,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -7823,10 +7827,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7837,7 +7841,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -7846,22 +7850,22 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -7910,19 +7914,19 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -7931,7 +7935,7 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>35</v>
@@ -7948,10 +7952,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7959,10 +7963,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -7971,20 +7975,20 @@
         <v>35</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -7997,7 +8001,7 @@
         <v>35</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>35</v>
@@ -8033,19 +8037,19 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8054,7 +8058,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8071,10 +8075,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8085,29 +8089,29 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8156,19 +8160,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8177,7 +8181,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8194,10 +8198,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8208,28 +8212,28 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8255,13 +8259,13 @@
         <v>35</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>35</v>
@@ -8279,31 +8283,31 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>35</v>
@@ -8312,15 +8316,15 @@
         <v>35</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8331,28 +8335,28 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8402,19 +8406,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -8423,7 +8427,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -8440,10 +8444,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8454,7 +8458,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -8466,13 +8470,13 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8523,13 +8527,13 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
@@ -8544,7 +8548,7 @@
         <v>35</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>35</v>
@@ -8561,14 +8565,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8587,16 +8591,16 @@
         <v>35</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8646,7 +8650,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8658,7 +8662,7 @@
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -8667,7 +8671,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -8684,14 +8688,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8704,25 +8708,25 @@
         <v>35</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>35</v>
@@ -8771,7 +8775,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8783,7 +8787,7 @@
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>35</v>
@@ -8792,7 +8796,7 @@
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>35</v>
@@ -8809,10 +8813,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8835,13 +8839,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8892,7 +8896,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8904,22 +8908,22 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>35</v>
@@ -8930,10 +8934,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8944,7 +8948,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>35</v>
@@ -8956,16 +8960,16 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8991,13 +8995,13 @@
         <v>35</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>35</v>
@@ -9015,7 +9019,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9027,16 +9031,16 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9048,15 +9052,15 @@
         <v>35</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9067,25 +9071,25 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9136,31 +9140,31 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>35</v>
@@ -9169,15 +9173,15 @@
         <v>35</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9188,10 +9192,10 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>35</v>
@@ -9200,13 +9204,13 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9233,13 +9237,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9257,31 +9261,31 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>35</v>
@@ -9290,15 +9294,15 @@
         <v>35</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9309,10 +9313,10 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>35</v>
@@ -9321,19 +9325,19 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>35</v>
@@ -9358,13 +9362,13 @@
         <v>35</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>35</v>
@@ -9382,32 +9386,32 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN61" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
       </c>
@@ -9415,15 +9419,15 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9434,10 +9438,10 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>35</v>
@@ -9446,13 +9450,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9503,31 +9507,31 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
@@ -9536,15 +9540,15 @@
         <v>35</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9567,16 +9571,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9626,7 +9630,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9638,19 +9642,19 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>35</v>
@@ -9659,7 +9663,7 @@
         <v>35</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
